--- a/db/data/TEST.xlsx
+++ b/db/data/TEST.xlsx
@@ -57,13 +57,13 @@
     <t>DISC</t>
   </si>
   <si>
-    <t>RE</t>
-  </si>
-  <si>
     <t>IGUALDAD</t>
   </si>
   <si>
     <t>J-VOLUNTARIA</t>
+  </si>
+  <si>
+    <t>ETI2019</t>
   </si>
 </sst>
 </file>
@@ -104,10 +104,9 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -617,11 +616,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="17.57421875"/>
-    <col customWidth="1" min="3" max="3" width="16.140625"/>
+    <col bestFit="1" min="1" max="1" width="4.7109375"/>
+    <col bestFit="1" customWidth="1" min="2" max="2" width="13.00390625"/>
+    <col bestFit="1" customWidth="1" min="3" max="3" width="11.00390625"/>
   </cols>
   <sheetData>
-    <row ht="14.25" r="1">
+    <row ht="23.25" r="1">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
@@ -635,8 +635,8 @@
         <v>3</v>
       </c>
       <c r="F1" s="1">
-        <f>SUM(C2:C30)</f>
-        <v>1378</v>
+        <f>SUM(C2:C34)</f>
+        <v>1699</v>
       </c>
     </row>
     <row ht="14.25" r="2">
@@ -809,7 +809,7 @@
         <v>86</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C17" s="0">
         <v>65</v>
@@ -819,8 +819,8 @@
       <c r="A18" s="0">
         <v>124</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>15</v>
+      <c r="B18" s="0" t="s">
+        <v>14</v>
       </c>
       <c r="C18" s="0">
         <v>109</v>
@@ -830,8 +830,8 @@
       <c r="A19" s="0">
         <v>125</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>16</v>
+      <c r="B19" s="0" t="s">
+        <v>15</v>
       </c>
       <c r="C19" s="0">
         <v>42</v>
@@ -842,7 +842,7 @@
         <v>126</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C20" s="0">
         <v>63</v>
@@ -853,7 +853,7 @@
         <v>127</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C21" s="0">
         <v>70</v>
@@ -864,55 +864,105 @@
         <v>128</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C22" s="0">
         <v>24</v>
       </c>
     </row>
     <row ht="14.25" r="23">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
+      <c r="A23" s="0">
+        <v>129</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" s="0">
+        <v>73</v>
+      </c>
     </row>
     <row ht="14.25" r="24">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
+      <c r="A24" s="0">
+        <v>130</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24" s="0">
+        <v>28</v>
+      </c>
     </row>
     <row ht="14.25" r="25">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
+      <c r="A25" s="0">
+        <v>131</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" s="0">
+        <v>50</v>
+      </c>
     </row>
     <row ht="14.25" r="26">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
+      <c r="A26" s="0">
+        <v>132</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" s="0">
+        <v>66</v>
+      </c>
     </row>
     <row ht="14.25" r="27">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
+      <c r="A27" s="0">
+        <v>999</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27" s="0">
+        <v>104</v>
+      </c>
     </row>
     <row ht="14.25" r="28">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
+      <c r="A28" s="0"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="0"/>
     </row>
     <row ht="14.25" r="29">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-    </row>
-    <row ht="14.25" r="30"/>
-    <row ht="23.25" r="31">
-      <c r="B31" s="0" t="s">
+      <c r="A29" s="0"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="0"/>
+    </row>
+    <row ht="14.25" r="30">
+      <c r="A30" s="0"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="0"/>
+    </row>
+    <row ht="14.25" r="31">
+      <c r="A31" s="0"/>
+      <c r="B31" s="0"/>
+      <c r="C31" s="0"/>
+    </row>
+    <row ht="14.25" r="32">
+      <c r="A32" s="0"/>
+      <c r="B32" s="0"/>
+      <c r="C32" s="0"/>
+    </row>
+    <row ht="14.25" r="33">
+      <c r="A33" s="0"/>
+      <c r="B33" s="0"/>
+      <c r="C33" s="0"/>
+    </row>
+    <row ht="14.25" r="34"/>
+    <row ht="23.25" r="35">
+      <c r="B35" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="C31" s="1">
-        <f>SUM(C2:C30)</f>
-        <v>1378</v>
+      <c r="C35" s="1">
+        <f>SUM(C2:C34)</f>
+        <v>1699</v>
       </c>
     </row>
   </sheetData>

--- a/db/data/TEST.xlsx
+++ b/db/data/TEST.xlsx
@@ -63,7 +63,7 @@
     <t>J-VOLUNTARIA</t>
   </si>
   <si>
-    <t>ETI2019</t>
+    <t>EXAM</t>
   </si>
 </sst>
 </file>
@@ -874,7 +874,7 @@
       <c r="A23" s="0">
         <v>129</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C23" s="0">
@@ -885,7 +885,7 @@
       <c r="A24" s="0">
         <v>130</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="0" t="s">
         <v>4</v>
       </c>
       <c r="C24" s="0">
@@ -896,7 +896,7 @@
       <c r="A25" s="0">
         <v>131</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C25" s="0">
@@ -907,7 +907,7 @@
       <c r="A26" s="0">
         <v>132</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C26" s="0">
@@ -926,35 +926,17 @@
       </c>
     </row>
     <row ht="14.25" r="28">
-      <c r="A28" s="0"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="0"/>
+      <c r="B28" s="0"/>
     </row>
     <row ht="14.25" r="29">
-      <c r="A29" s="0"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="0"/>
+      <c r="B29" s="0"/>
     </row>
     <row ht="14.25" r="30">
-      <c r="A30" s="0"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="0"/>
-    </row>
-    <row ht="14.25" r="31">
-      <c r="A31" s="0"/>
-      <c r="B31" s="0"/>
-      <c r="C31" s="0"/>
-    </row>
-    <row ht="14.25" r="32">
-      <c r="A32" s="0"/>
-      <c r="B32" s="0"/>
-      <c r="C32" s="0"/>
-    </row>
-    <row ht="14.25" r="33">
-      <c r="A33" s="0"/>
-      <c r="B33" s="0"/>
-      <c r="C33" s="0"/>
-    </row>
+      <c r="B30" s="0"/>
+    </row>
+    <row ht="14.25" r="31"/>
+    <row ht="14.25" r="32"/>
+    <row ht="14.25" r="33"/>
     <row ht="14.25" r="34"/>
     <row ht="23.25" r="35">
       <c r="B35" s="0" t="s">

--- a/db/data/TEST.xlsx
+++ b/db/data/TEST.xlsx
@@ -104,10 +104,9 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -636,7 +635,7 @@
       </c>
       <c r="F1" s="1">
         <f>SUM(C2:C34)</f>
-        <v>1699</v>
+        <v>1803</v>
       </c>
     </row>
     <row ht="14.25" r="2">
@@ -916,9 +915,9 @@
     </row>
     <row ht="14.25" r="27">
       <c r="A27" s="0">
-        <v>999</v>
-      </c>
-      <c r="B27" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="B27" s="0" t="s">
         <v>16</v>
       </c>
       <c r="C27" s="0">
@@ -926,14 +925,18 @@
       </c>
     </row>
     <row ht="14.25" r="28">
-      <c r="B28" s="0"/>
-    </row>
-    <row ht="14.25" r="29">
-      <c r="B29" s="0"/>
-    </row>
-    <row ht="14.25" r="30">
-      <c r="B30" s="0"/>
-    </row>
+      <c r="A28" s="0">
+        <v>501</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28" s="0">
+        <v>104</v>
+      </c>
+    </row>
+    <row ht="14.25" r="29"/>
+    <row ht="14.25" r="30"/>
     <row ht="14.25" r="31"/>
     <row ht="14.25" r="32"/>
     <row ht="14.25" r="33"/>
@@ -944,7 +947,7 @@
       </c>
       <c r="C35" s="1">
         <f>SUM(C2:C34)</f>
-        <v>1699</v>
+        <v>1803</v>
       </c>
     </row>
   </sheetData>

--- a/db/data/TEST.xlsx
+++ b/db/data/TEST.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>TEST</t>
   </si>
@@ -64,6 +64,9 @@
   </si>
   <si>
     <t>EXAM</t>
+  </si>
+  <si>
+    <t>PENAL</t>
   </si>
 </sst>
 </file>
@@ -104,9 +107,11 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -634,8 +639,8 @@
         <v>3</v>
       </c>
       <c r="F1" s="1">
-        <f>SUM(C2:C34)</f>
-        <v>1803</v>
+        <f>SUM(C2:C46)</f>
+        <v>2373</v>
       </c>
     </row>
     <row ht="14.25" r="2">
@@ -935,19 +940,127 @@
         <v>104</v>
       </c>
     </row>
-    <row ht="14.25" r="29"/>
-    <row ht="14.25" r="30"/>
-    <row ht="14.25" r="31"/>
-    <row ht="14.25" r="32"/>
-    <row ht="14.25" r="33"/>
-    <row ht="14.25" r="34"/>
-    <row ht="23.25" r="35">
-      <c r="B35" s="0" t="s">
+    <row ht="14.25" r="29">
+      <c r="A29" s="2">
+        <v>1</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row ht="14.25" r="30">
+      <c r="A30" s="2">
+        <v>2</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30" s="2">
+        <v>98</v>
+      </c>
+    </row>
+    <row ht="14.25" r="31">
+      <c r="A31" s="2">
         <v>3</v>
       </c>
-      <c r="C35" s="1">
-        <f>SUM(C2:C34)</f>
-        <v>1803</v>
+      <c r="B31" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" s="2">
+        <v>84</v>
+      </c>
+    </row>
+    <row ht="14.25" r="32">
+      <c r="A32" s="2">
+        <v>15</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C32" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row ht="14.25" r="33">
+      <c r="A33" s="2">
+        <v>44</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row ht="14.25" r="34">
+      <c r="A34" s="2">
+        <v>135</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C34" s="2">
+        <v>58</v>
+      </c>
+    </row>
+    <row ht="14.25" r="35">
+      <c r="A35" s="2">
+        <v>136</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C35" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row ht="14.25" r="36">
+      <c r="A36" s="2">
+        <v>137</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row ht="14.25" r="37">
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+    </row>
+    <row ht="14.25" r="38">
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+    </row>
+    <row ht="14.25" r="39">
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+    </row>
+    <row ht="14.25" r="40">
+      <c r="A40" s="2"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+    </row>
+    <row ht="14.25" r="41"/>
+    <row ht="14.25" r="42"/>
+    <row ht="14.25" r="43"/>
+    <row ht="14.25" r="44"/>
+    <row ht="14.25" r="45"/>
+    <row ht="14.25" r="46"/>
+    <row ht="23.25" r="47">
+      <c r="B47" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="C47" s="1">
+        <f>SUM(C2:C46)</f>
+        <v>2373</v>
       </c>
     </row>
   </sheetData>
